--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathansobotka/Downloads/Engl009 Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathansobotka/Downloads/Engl009 Project/repo/nsobotka.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98699DD8-D869-0C4D-83E3-CB31A3BE704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E908F7-A95A-5843-B21D-10D8B0A1D35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="2100" windowWidth="18740" windowHeight="17440" xr2:uid="{0D9B83DD-F4FD-2A44-9750-2149B26CC548}"/>
+    <workbookView xWindow="1620" yWindow="500" windowWidth="29040" windowHeight="21160" xr2:uid="{0D9B83DD-F4FD-2A44-9750-2149B26CC548}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Enrollment</t>
   </si>
@@ -76,12 +76,6 @@
     <t>College for women</t>
   </si>
   <si>
-    <t>Outside the state</t>
-  </si>
-  <si>
-    <t>From Pennsylvania</t>
-  </si>
-  <si>
     <t>Out of country</t>
   </si>
   <si>
@@ -140,6 +134,15 @@
   </si>
   <si>
     <t>2017-2021</t>
+  </si>
+  <si>
+    <t>Out of state</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Greek Life or Honors Society (%)</t>
   </si>
 </sst>
 </file>
@@ -491,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C40D80-DF60-C545-AE3A-F1AF82DD0D48}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1900</v>
       </c>
@@ -518,11 +521,11 @@
       <c r="G1">
         <v>1970</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -544,11 +547,11 @@
       <c r="G2">
         <v>950</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -567,11 +570,11 @@
       <c r="F3">
         <v>807</v>
       </c>
-      <c r="J3">
+      <c r="H3">
         <v>1782</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -590,11 +593,11 @@
       <c r="F4">
         <v>267</v>
       </c>
-      <c r="J4">
+      <c r="H4">
         <v>1518</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -616,11 +619,11 @@
       <c r="G5">
         <v>248</v>
       </c>
-      <c r="J5">
+      <c r="H5">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -643,11 +646,11 @@
       <c r="G6">
         <v>63</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -670,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -693,9 +696,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -716,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -739,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -753,18 +756,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>76</v>
       </c>
-      <c r="J12">
+      <c r="H12">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -778,9 +781,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>166</v>
@@ -800,13 +803,13 @@
       <c r="G14">
         <v>340</v>
       </c>
-      <c r="J14">
+      <c r="H14">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>37</v>
@@ -823,8 +826,11 @@
       <c r="F15">
         <v>575</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -844,9 +850,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -863,13 +869,13 @@
       <c r="F17">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="H17">
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -884,9 +890,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>65</v>
@@ -904,9 +910,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -924,9 +930,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -938,9 +944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -949,9 +955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>84</v>
@@ -966,9 +972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -986,9 +992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>108</v>
@@ -1002,13 +1008,13 @@
       <c r="G25">
         <v>360</v>
       </c>
-      <c r="J25">
+      <c r="H25">
         <v>1785</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1020,9 +1026,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1034,9 +1040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1047,13 +1053,25 @@
       <c r="G28">
         <v>6</v>
       </c>
-      <c r="J28">
+      <c r="H28">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>84</v>
+      </c>
+      <c r="C29">
+        <v>291</v>
+      </c>
+      <c r="D29">
+        <v>406</v>
+      </c>
+      <c r="E29">
+        <v>88</v>
       </c>
       <c r="F29">
         <v>896</v>
@@ -1061,13 +1079,13 @@
       <c r="G29">
         <v>498</v>
       </c>
-      <c r="J29">
+      <c r="H29">
         <v>825</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1079,36 +1097,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34">
+        <v>31</v>
+      </c>
+      <c r="H34">
         <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f>B29/B2 * 100</f>
+        <v>40.975609756097562</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:H35" si="0">C29/C2 * 100</f>
+        <v>66.13636363636364</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>78.68217054263566</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>41.121495327102799</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>83.426443202979513</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>52.421052631578945</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathansobotka/Downloads/Engl009 Project/repo/nsobotka.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E908F7-A95A-5843-B21D-10D8B0A1D35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3661D04E-508D-5D41-85A4-912251D3989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="500" windowWidth="29040" windowHeight="21160" xr2:uid="{0D9B83DD-F4FD-2A44-9750-2149B26CC548}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,9 +729,6 @@
       <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -979,18 +976,6 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1034,9 +1019,6 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
         <v>0</v>
       </c>
     </row>
